--- a/FashionShop/src/산출물/shppingMallDB.xlsx
+++ b/FashionShop/src/산출물/shppingMallDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\final_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A1B67F-3E69-442D-A84A-4CAE13171BC4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13D71E-9A2B-43A9-B475-E9DD4502F55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3C9785ED-06E3-42A5-A445-26E06D71CE28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,42 @@
   </si>
   <si>
     <t>대표이미지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email_server</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zipcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zino1187</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>naver.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -721,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96B167-E4B6-4924-86BC-A1ED90F85454}">
-  <dimension ref="B3:P37"/>
+  <dimension ref="B3:Q37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -739,6 +775,7 @@
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="14.09765625" customWidth="1"/>
     <col min="12" max="12" width="12.69921875" customWidth="1"/>
+    <col min="15" max="15" width="11.19921875" customWidth="1"/>
     <col min="16" max="16" width="9.59765625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1170,7 +1207,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B17" s="1">
         <v>4</v>
       </c>
@@ -1203,7 +1240,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F18" s="1">
         <v>13</v>
       </c>
@@ -1227,7 +1264,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F19" s="1">
         <v>14</v>
       </c>
@@ -1251,7 +1288,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F20" s="1">
         <v>15</v>
       </c>
@@ -1275,7 +1312,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F21" s="1">
         <v>16</v>
       </c>
@@ -1299,7 +1336,7 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
       <c r="F22" s="7"/>
       <c r="G22" s="8"/>
       <c r="H22" s="8"/>
@@ -1310,7 +1347,7 @@
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="9" t="s">
         <v>38</v>
       </c>
@@ -1322,7 +1359,7 @@
       <c r="G23" s="9"/>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3" t="s">
@@ -1334,7 +1371,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B25" s="2" t="s">
         <v>39</v>
       </c>
@@ -1353,8 +1390,32 @@
       <c r="H25" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
         <v>1</v>
       </c>
@@ -1373,8 +1434,20 @@
       <c r="H26" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.4">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
         <v>2</v>
       </c>
@@ -1394,7 +1467,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B28" s="1">
         <v>3</v>
       </c>
@@ -1408,7 +1481,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
         <v>4</v>
       </c>
@@ -1422,7 +1495,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B31" s="9" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1507,7 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3" t="s">

--- a/FashionShop/src/산출물/shppingMallDB.xlsx
+++ b/FashionShop/src/산출물/shppingMallDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\final_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC13D71E-9A2B-43A9-B475-E9DD4502F55D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BCF09C-4BB4-430D-81D7-FCF9DBE56AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3C9785ED-06E3-42A5-A445-26E06D71CE28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -293,6 +293,10 @@
   </si>
   <si>
     <t>naver.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -403,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -430,6 +434,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -757,10 +764,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96B167-E4B6-4924-86BC-A1ED90F85454}">
-  <dimension ref="B3:Q37"/>
+  <dimension ref="B3:Q40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -771,7 +778,7 @@
     <col min="5" max="5" width="6" customWidth="1"/>
     <col min="6" max="7" width="14.09765625" customWidth="1"/>
     <col min="8" max="8" width="11.09765625" customWidth="1"/>
-    <col min="9" max="9" width="6.296875" customWidth="1"/>
+    <col min="9" max="9" width="8.19921875" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="14.09765625" customWidth="1"/>
     <col min="12" max="12" width="12.69921875" customWidth="1"/>
@@ -780,25 +787,25 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="F3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="J3" s="10" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="J3" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="13"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
       <c r="B4" s="3"/>
@@ -1047,11 +1054,11 @@
       <c r="P11" s="1"/>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
       <c r="F12" s="1">
         <v>7</v>
       </c>
@@ -1348,16 +1355,17 @@
       <c r="O22" s="7"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="F23" s="9" t="s">
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="F23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B24" s="3"/>
@@ -1368,6 +1376,9 @@
       <c r="F24" s="3"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="I24" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -1388,32 +1399,19 @@
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="P25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q25" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+      <c r="M25" s="7"/>
+      <c r="N25" s="7"/>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1432,20 +1430,19 @@
         <v>3</v>
       </c>
       <c r="H26" s="1">
-        <v>2</v>
-      </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="O26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="7"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1464,6 +1461,9 @@
         <v>3</v>
       </c>
       <c r="H27" s="1">
+        <v>2</v>
+      </c>
+      <c r="I27" s="1">
         <v>5</v>
       </c>
     </row>
@@ -1480,6 +1480,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B29" s="1">
@@ -1494,18 +1495,19 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="F31" s="9" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B32" s="3"/>
@@ -1519,7 +1521,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="2" t="s">
         <v>44</v>
       </c>
@@ -1539,7 +1541,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -1559,7 +1561,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1579,7 +1581,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -1599,7 +1601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>4</v>
       </c>
@@ -1618,6 +1620,46 @@
       <c r="H37" s="1">
         <v>38</v>
       </c>
+    </row>
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B39" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/FashionShop/src/산출물/shppingMallDB.xlsx
+++ b/FashionShop/src/산출물/shppingMallDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace2\final_workspace\FashionShop\src\산출물\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5BCF09C-4BB4-430D-81D7-FCF9DBE56AEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020C27EA-C4DF-4763-AD69-52AB96688A16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{3C9785ED-06E3-42A5-A445-26E06D71CE28}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>topcategory</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -256,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대표이미지</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>member_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -297,6 +293,182 @@
   </si>
   <si>
     <t>회원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대표이미지(확장자)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 (6하 원칙)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송받을사람</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>누가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제액? 물건가액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지불액(포인트 차감)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB 넣을필요없다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실제 결제할 금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문 요약(order_summary)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_summary_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송정보(receiver)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receive_addr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우리집</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>paymethod_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>card</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상세(order_detail)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_detail_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>total_pay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orderdate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언제?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>order_state</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품준비중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송출발</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배송완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택한 결제방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제방법(paymethod)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구매시점의 가격 price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>핸드폰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>온라인입금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상계좌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>receiver_phone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(color)빠짐..알아서해</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -321,7 +493,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -330,18 +502,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -401,46 +585,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -449,6 +757,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,26 +1147,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A96B167-E4B6-4924-86BC-A1ED90F85454}">
-  <dimension ref="B3:Q40"/>
+  <dimension ref="B3:Q73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="13.796875" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
-    <col min="4" max="4" width="10.09765625" customWidth="1"/>
-    <col min="5" max="5" width="6" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="15.8984375" customWidth="1"/>
+    <col min="4" max="4" width="15.59765625" customWidth="1"/>
+    <col min="5" max="5" width="19.59765625" customWidth="1"/>
     <col min="6" max="7" width="14.09765625" customWidth="1"/>
-    <col min="8" max="8" width="11.09765625" customWidth="1"/>
-    <col min="9" max="9" width="8.19921875" customWidth="1"/>
+    <col min="8" max="8" width="15.8984375" customWidth="1"/>
+    <col min="9" max="9" width="17.69921875" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="14.09765625" customWidth="1"/>
+    <col min="11" max="11" width="20.5" customWidth="1"/>
     <col min="12" max="12" width="12.69921875" customWidth="1"/>
     <col min="15" max="15" width="11.19921875" customWidth="1"/>
-    <col min="16" max="16" width="9.59765625" customWidth="1"/>
+    <col min="16" max="16" width="15.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:16" x14ac:dyDescent="0.4">
@@ -808,15 +1192,15 @@
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="M4" s="1" t="s">
@@ -825,15 +1209,15 @@
       <c r="N4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="P4" s="6" t="s">
-        <v>55</v>
+      <c r="P4" s="5" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -842,19 +1226,19 @@
       <c r="D5" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="J5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="3" t="s">
         <v>8</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -869,7 +1253,7 @@
       <c r="O5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="4" t="s">
         <v>51</v>
       </c>
     </row>
@@ -979,7 +1363,7 @@
       <c r="C9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="4">
         <v>4</v>
       </c>
       <c r="F9" s="1">
@@ -1009,19 +1393,19 @@
       <c r="F10" s="1">
         <v>5</v>
       </c>
-      <c r="G10" s="5">
+      <c r="G10" s="4">
         <v>2</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="J10" s="1">
         <v>5</v>
       </c>
-      <c r="K10" s="5">
+      <c r="K10" s="4">
         <v>2</v>
       </c>
-      <c r="L10" s="5" t="s">
+      <c r="L10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="1"/>
@@ -1033,19 +1417,19 @@
       <c r="F11" s="1">
         <v>6</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <v>2</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="J11" s="1">
         <v>6</v>
       </c>
-      <c r="K11" s="5">
+      <c r="K11" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="5" t="s">
+      <c r="L11" s="4" t="s">
         <v>14</v>
       </c>
       <c r="M11" s="1"/>
@@ -1062,19 +1446,19 @@
       <c r="F12" s="1">
         <v>7</v>
       </c>
-      <c r="G12" s="5">
+      <c r="G12" s="4">
         <v>2</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="J12" s="1">
         <v>7</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>2</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="L12" s="4" t="s">
         <v>15</v>
       </c>
       <c r="M12" s="1"/>
@@ -1083,10 +1467,10 @@
       <c r="P12" s="1"/>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.4">
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1095,19 +1479,19 @@
       <c r="F13" s="1">
         <v>8</v>
       </c>
-      <c r="G13" s="5">
+      <c r="G13" s="4">
         <v>2</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="1">
         <v>8</v>
       </c>
-      <c r="K13" s="5">
+      <c r="K13" s="4">
         <v>2</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="L13" s="4" t="s">
         <v>16</v>
       </c>
       <c r="M13" s="1"/>
@@ -1128,19 +1512,19 @@
       <c r="F14" s="1">
         <v>9</v>
       </c>
-      <c r="G14" s="5">
-        <v>3</v>
-      </c>
-      <c r="H14" s="5" t="s">
+      <c r="G14" s="4">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="J14" s="1">
         <v>9</v>
       </c>
-      <c r="K14" s="5">
-        <v>3</v>
-      </c>
-      <c r="L14" s="5" t="s">
+      <c r="K14" s="4">
+        <v>3</v>
+      </c>
+      <c r="L14" s="4" t="s">
         <v>17</v>
       </c>
       <c r="M14" s="1"/>
@@ -1161,19 +1545,19 @@
       <c r="F15" s="1">
         <v>10</v>
       </c>
-      <c r="G15" s="5">
-        <v>3</v>
-      </c>
-      <c r="H15" s="5" t="s">
+      <c r="G15" s="4">
+        <v>3</v>
+      </c>
+      <c r="H15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="J15" s="1">
         <v>10</v>
       </c>
-      <c r="K15" s="5">
-        <v>3</v>
-      </c>
-      <c r="L15" s="5" t="s">
+      <c r="K15" s="4">
+        <v>3</v>
+      </c>
+      <c r="L15" s="4" t="s">
         <v>18</v>
       </c>
       <c r="M15" s="1"/>
@@ -1194,19 +1578,19 @@
       <c r="F16" s="1">
         <v>11</v>
       </c>
-      <c r="G16" s="5">
-        <v>3</v>
-      </c>
-      <c r="H16" s="5" t="s">
+      <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="J16" s="1">
         <v>11</v>
       </c>
-      <c r="K16" s="5">
-        <v>3</v>
-      </c>
-      <c r="L16" s="5" t="s">
+      <c r="K16" s="4">
+        <v>3</v>
+      </c>
+      <c r="L16" s="4" t="s">
         <v>19</v>
       </c>
       <c r="M16" s="1"/>
@@ -1227,19 +1611,19 @@
       <c r="F17" s="1">
         <v>12</v>
       </c>
-      <c r="G17" s="5">
-        <v>3</v>
-      </c>
-      <c r="H17" s="5" t="s">
+      <c r="G17" s="4">
+        <v>3</v>
+      </c>
+      <c r="H17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="1">
         <v>12</v>
       </c>
-      <c r="K17" s="5">
-        <v>3</v>
-      </c>
-      <c r="L17" s="5" t="s">
+      <c r="K17" s="4">
+        <v>3</v>
+      </c>
+      <c r="L17" s="4" t="s">
         <v>20</v>
       </c>
       <c r="M17" s="1"/>
@@ -1251,19 +1635,19 @@
       <c r="F18" s="1">
         <v>13</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <v>4</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="J18" s="1">
         <v>13</v>
       </c>
-      <c r="K18" s="5">
+      <c r="K18" s="4">
         <v>4</v>
       </c>
-      <c r="L18" s="5" t="s">
+      <c r="L18" s="4" t="s">
         <v>21</v>
       </c>
       <c r="M18" s="1"/>
@@ -1275,19 +1659,19 @@
       <c r="F19" s="1">
         <v>14</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="4">
         <v>4</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="J19" s="1">
         <v>14</v>
       </c>
-      <c r="K19" s="5">
+      <c r="K19" s="4">
         <v>4</v>
       </c>
-      <c r="L19" s="5" t="s">
+      <c r="L19" s="4" t="s">
         <v>22</v>
       </c>
       <c r="M19" s="1"/>
@@ -1299,19 +1683,19 @@
       <c r="F20" s="1">
         <v>15</v>
       </c>
-      <c r="G20" s="5">
+      <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="J20" s="1">
         <v>15</v>
       </c>
-      <c r="K20" s="5">
+      <c r="K20" s="4">
         <v>4</v>
       </c>
-      <c r="L20" s="5" t="s">
+      <c r="L20" s="4" t="s">
         <v>23</v>
       </c>
       <c r="M20" s="1"/>
@@ -1323,19 +1707,19 @@
       <c r="F21" s="1">
         <v>16</v>
       </c>
-      <c r="G21" s="5">
+      <c r="G21" s="4">
         <v>4</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="J21" s="1">
         <v>16</v>
       </c>
-      <c r="K21" s="5">
+      <c r="K21" s="4">
         <v>4</v>
       </c>
-      <c r="L21" s="5" t="s">
+      <c r="L21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="M21" s="1"/>
@@ -1344,15 +1728,15 @@
       <c r="P21" s="1"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="F22" s="7"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="J22" s="7"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="7"/>
-      <c r="N22" s="7"/>
-      <c r="O22" s="7"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B23" s="10" t="s">
@@ -1368,50 +1752,50 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I24" s="9" t="s">
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="8" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="7"/>
-      <c r="L25" s="7"/>
-      <c r="M25" s="7"/>
-      <c r="N25" s="7"/>
-      <c r="O25" s="7"/>
-      <c r="P25" s="7"/>
-      <c r="Q25" s="7"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B26" s="1">
@@ -1435,14 +1819,14 @@
       <c r="I26" s="1">
         <v>2</v>
       </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
-      <c r="L26" s="7"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7"/>
-      <c r="Q26" s="7"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="6"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.4">
       <c r="B27" s="1">
@@ -1510,38 +1894,38 @@
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.4">
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3" t="s">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3" t="s">
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B33" s="2" t="s">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B33" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="4" t="s">
+      <c r="G33" s="3" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B34" s="1">
         <v>1</v>
       </c>
@@ -1561,7 +1945,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B35" s="1">
         <v>2</v>
       </c>
@@ -1581,7 +1965,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B36" s="1">
         <v>3</v>
       </c>
@@ -1601,7 +1985,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B37" s="1">
         <v>4</v>
       </c>
@@ -1621,56 +2005,455 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B39" s="1" t="s">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B39" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C39" s="1" t="s">
         <v>56</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>57</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="H39" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="I39" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B42" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="32"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="17"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B43" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="25"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="17"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B44" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="H44" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="I44" s="22"/>
+      <c r="J44" s="17"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B45" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="G45" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H45" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I45" s="22"/>
+      <c r="J45" s="17"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B46" s="24">
+        <v>23</v>
+      </c>
+      <c r="C46" s="24">
+        <v>5</v>
+      </c>
+      <c r="D46" s="24">
+        <v>170000</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="29">
+        <v>44203</v>
+      </c>
+      <c r="G46" s="26">
+        <v>2</v>
+      </c>
+      <c r="H46" s="24">
+        <v>1</v>
+      </c>
+      <c r="I46" s="22"/>
+      <c r="J46" s="17"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="6"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G48" s="6"/>
+      <c r="I48" s="33"/>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B51" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="21"/>
+      <c r="H51" s="16"/>
+      <c r="I51" s="16"/>
+      <c r="J51" s="16"/>
+    </row>
+    <row r="52" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B52" s="24"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="F52" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="G52" s="34"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+    </row>
+    <row r="53" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B53" s="27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" s="34"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+    </row>
+    <row r="54" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B54" s="24"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F54" s="24"/>
+      <c r="G54" s="34"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+    </row>
+    <row r="55" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B55" s="24"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="F55" s="24"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+    </row>
+    <row r="56" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="G56" s="35"/>
+      <c r="H56" s="35"/>
+      <c r="I56" s="35"/>
+      <c r="J56" s="35"/>
+    </row>
+    <row r="57" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B57" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="31"/>
+      <c r="E57" s="31"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="32"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="36"/>
+      <c r="J57" s="36"/>
+      <c r="K57" s="36"/>
+    </row>
+    <row r="58" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B58" s="24"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="34"/>
+      <c r="I58" s="18"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="18"/>
+    </row>
+    <row r="59" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B59" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="C59" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E59" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="H59" s="34"/>
+      <c r="I59" s="18"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="18"/>
+    </row>
+    <row r="60" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B60" s="24">
+        <v>1</v>
+      </c>
+      <c r="C60" s="24">
+        <v>23</v>
+      </c>
+      <c r="D60" s="24">
+        <v>5</v>
+      </c>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="18"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="18"/>
+    </row>
+    <row r="61" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B61" s="24">
+        <v>2</v>
+      </c>
+      <c r="C61" s="24">
+        <v>23</v>
+      </c>
+      <c r="D61" s="24">
+        <v>7</v>
+      </c>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+    </row>
+    <row r="62" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="K62" s="6"/>
+    </row>
+    <row r="64" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B64" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="C64" s="15"/>
+      <c r="E64" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="15"/>
+    </row>
+    <row r="65" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B65" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G65" s="16"/>
+      <c r="I65" s="16"/>
+      <c r="J65" s="16"/>
+    </row>
+    <row r="66" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E66" s="1"/>
+      <c r="F66" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G66" s="18"/>
+      <c r="I66" s="18"/>
+      <c r="J66" s="19"/>
+    </row>
+    <row r="67" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B67" s="1"/>
+      <c r="C67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" s="18"/>
+      <c r="I67" s="17"/>
+      <c r="J67" s="19"/>
+    </row>
+    <row r="68" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B68" s="1"/>
+      <c r="C68" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="1"/>
+      <c r="F68" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G68" s="18"/>
+      <c r="I68" s="17"/>
+      <c r="J68" s="19"/>
+    </row>
+    <row r="69" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B69" s="1"/>
+      <c r="C69" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="1"/>
+      <c r="F69" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G69" s="18"/>
+      <c r="I69" s="17"/>
+      <c r="J69" s="19"/>
+    </row>
+    <row r="70" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="I70" s="17"/>
+      <c r="J70" s="19"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="G73" s="38"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B23:D23"/>
+  <mergeCells count="14">
+    <mergeCell ref="B57:G57"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="E64:F64"/>
     <mergeCell ref="J3:P3"/>
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="F23:H23"/>
     <mergeCell ref="F31:H31"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="B42:H42"/>
+    <mergeCell ref="B51:F51"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
